--- a/AwardsServer/TimeTakenData.xlsx
+++ b/AwardsServer/TimeTakenData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Student</t>
   </si>
@@ -146,13 +146,10 @@
     <t>iiiii</t>
   </si>
   <si>
-    <t>Class Width</t>
-  </si>
-  <si>
-    <t>Frequency Density</t>
-  </si>
-  <si>
     <t>06:00 &lt; x &lt; 10:00</t>
+  </si>
+  <si>
+    <t>Midpoint</t>
   </si>
 </sst>
 </file>
@@ -200,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -208,16 +205,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2153,15 +2148,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>152399</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2182,16 +2177,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2230,18 +2225,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D1:H10" totalsRowShown="0">
-  <autoFilter ref="D1:H10"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D1:G10" totalsRowShown="0">
+  <autoFilter ref="D1:G10"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="Group"/>
     <tableColumn id="2" name="Tally"/>
-    <tableColumn id="3" name="Frequency" dataDxfId="2">
+    <tableColumn id="3" name="Frequency" dataDxfId="1">
       <calculatedColumnFormula>LEN(Table2[[#This Row],[Tally]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Class Width"/>
-    <tableColumn id="5" name="Frequency Density" dataDxfId="1">
-      <calculatedColumnFormula>Table2[[#This Row],[Frequency]]/Table2[[#This Row],[Class Width]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="6" name="Midpoint"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2510,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,7 +2516,7 @@
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2541,13 +2533,10 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2564,15 +2553,11 @@
         <f>LEN(Table2[[#This Row],[Tally]])</f>
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>60</v>
-      </c>
-      <c r="H2">
-        <f>Table2[[#This Row],[Frequency]]/Table2[[#This Row],[Class Width]]</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2589,15 +2574,11 @@
         <f>LEN(Table2[[#This Row],[Tally]])</f>
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <f>Table2[[#This Row],[Frequency]]/Table2[[#This Row],[Class Width]]</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="7">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2614,15 +2595,11 @@
         <f>LEN(Table2[[#This Row],[Tally]])</f>
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <f>Table2[[#This Row],[Frequency]]/Table2[[#This Row],[Class Width]]</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2639,15 +2616,11 @@
         <f>LEN(Table2[[#This Row],[Tally]])</f>
         <v>6</v>
       </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <f>Table2[[#This Row],[Frequency]]/Table2[[#This Row],[Class Width]]</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="7">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2664,15 +2637,11 @@
         <f>LEN(Table2[[#This Row],[Tally]])</f>
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <f>Table2[[#This Row],[Frequency]]/Table2[[#This Row],[Class Width]]</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="7">
+        <v>0.11458333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2689,15 +2658,11 @@
         <f>LEN(Table2[[#This Row],[Tally]])</f>
         <v>6</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <f>Table2[[#This Row],[Frequency]]/Table2[[#This Row],[Class Width]]</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="7">
+        <v>0.14583333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2714,15 +2679,8 @@
         <f>LEN(Table2[[#This Row],[Tally]])</f>
         <v>5</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <f>Table2[[#This Row],[Frequency]]/Table2[[#This Row],[Class Width]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2739,15 +2697,8 @@
         <f>LEN(Table2[[#This Row],[Tally]])</f>
         <v>5</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <f>Table2[[#This Row],[Frequency]]/Table2[[#This Row],[Class Width]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2755,7 +2706,7 @@
         <v>1.6394560185185184E-3</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -2764,15 +2715,8 @@
         <f>LEN(Table2[[#This Row],[Tally]])</f>
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <f>Table2[[#This Row],[Frequency]]/Table2[[#This Row],[Class Width]]</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2780,7 +2724,7 @@
         <v>1.7244675925925925E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2788,7 +2732,7 @@
         <v>1.7982523148148148E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2796,7 +2740,7 @@
         <v>1.8125231481481482E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2804,7 +2748,7 @@
         <v>1.9058564814814815E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2812,7 +2756,7 @@
         <v>1.9098726851851852E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>

--- a/AwardsServer/TimeTakenData.xlsx
+++ b/AwardsServer/TimeTakenData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Student</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>Midpoint</t>
+  </si>
+  <si>
+    <t>Cumulative Frequency</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Higher</t>
   </si>
 </sst>
 </file>
@@ -210,12 +222,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1044,6 +1059,349 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2083333333333336E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2916666666666671E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="540741112"/>
+        <c:axId val="540734056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="540741112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540734056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="540734056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540741112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1124,6 +1482,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1628,6 +2026,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2205,6 +3119,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2216,7 +3160,7 @@
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" name="Student"/>
-    <tableColumn id="2" name="Time taken" totalsRowFunction="custom" totalsRowDxfId="0">
+    <tableColumn id="2" name="Time taken" totalsRowFunction="custom" totalsRowDxfId="2">
       <totalsRowFormula>AVERAGE(Table1[Time taken])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2225,15 +3169,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D1:G10" totalsRowShown="0">
-  <autoFilter ref="D1:G10"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D1:H10" totalsRowShown="0">
+  <autoFilter ref="D1:H10"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Group"/>
     <tableColumn id="2" name="Tally"/>
     <tableColumn id="3" name="Frequency" dataDxfId="1">
       <calculatedColumnFormula>LEN(Table2[[#This Row],[Tally]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Midpoint"/>
+    <tableColumn id="7" name="Cumulative Frequency" dataDxfId="0">
+      <calculatedColumnFormula>Table2[[#This Row],[Frequency]]+H1</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2502,10 +3449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2516,7 +3463,7 @@
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2535,8 +3482,11 @@
       <c r="G1" t="s">
         <v>41</v>
       </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2556,8 +3506,19 @@
       <c r="G2" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="H2">
+        <f>Table2[[#This Row],[Frequency]]</f>
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="6">
+        <f>_xlfn.QUARTILE.EXC(Table1[Time taken],1)</f>
+        <v>1.6607089120370369E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2577,8 +3538,19 @@
       <c r="G3" s="7">
         <v>5.2083333333333336E-2</v>
       </c>
+      <c r="H3">
+        <f>Table2[[#This Row],[Frequency]]+H2</f>
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="6">
+        <f>_xlfn.QUARTILE.EXC(Table1[Time taken],2)</f>
+        <v>2.1956597222222221E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2598,8 +3570,19 @@
       <c r="G4" s="7">
         <v>7.2916666666666671E-2</v>
       </c>
+      <c r="H4">
+        <f>Table2[[#This Row],[Frequency]]+H3</f>
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="6">
+        <f>_xlfn.QUARTILE.EXC(Table1[Time taken],3)</f>
+        <v>3.2974652777777781E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +3602,12 @@
       <c r="G5" s="7">
         <v>9.375E-2</v>
       </c>
+      <c r="H5">
+        <f>Table2[[#This Row],[Frequency]]+H4</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2640,8 +3627,12 @@
       <c r="G6" s="7">
         <v>0.11458333333333333</v>
       </c>
+      <c r="H6">
+        <f>Table2[[#This Row],[Frequency]]+H5</f>
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2661,8 +3652,12 @@
       <c r="G7" s="7">
         <v>0.14583333333333334</v>
       </c>
+      <c r="H7">
+        <f>Table2[[#This Row],[Frequency]]+H6</f>
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2679,8 +3674,16 @@
         <f>LEN(Table2[[#This Row],[Tally]])</f>
         <v>5</v>
       </c>
+      <c r="G8" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="H8">
+        <f>Table2[[#This Row],[Frequency]]+H7</f>
+        <v>26</v>
+      </c>
+      <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2697,8 +3700,16 @@
         <f>LEN(Table2[[#This Row],[Tally]])</f>
         <v>5</v>
       </c>
+      <c r="G9" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="H9">
+        <f>Table2[[#This Row],[Frequency]]+H8</f>
+        <v>31</v>
+      </c>
+      <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2715,8 +3726,16 @@
         <f>LEN(Table2[[#This Row],[Tally]])</f>
         <v>1</v>
       </c>
+      <c r="G10" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H10">
+        <f>Table2[[#This Row],[Frequency]]+H9</f>
+        <v>32</v>
+      </c>
+      <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2724,7 +3743,7 @@
         <v>1.7244675925925925E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2732,7 +3751,7 @@
         <v>1.7982523148148148E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2740,7 +3759,7 @@
         <v>1.8125231481481482E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2748,7 +3767,7 @@
         <v>1.9058564814814815E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2756,7 +3775,7 @@
         <v>1.9098726851851852E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
